--- a/docs/StructureDefinition-VAProgressNote.xlsx
+++ b/docs/StructureDefinition-VAProgressNote.xlsx
@@ -336,6 +336,65 @@
     <t>DomainResource.extension</t>
   </si>
   <si>
+    <t>documentreference-statusDetail-coding-code</t>
+  </si>
+  <si>
+    <t>STATUS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/documentreference-statusDetail.coding.code}
+</t>
+  </si>
+  <si>
+    <t>Optional Extensions Element</t>
+  </si>
+  <si>
+    <t>This field is intended to accommodate the status of a given report.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>TIU DOCUMENT @STATUS 8925-.05b</t>
+  </si>
+  <si>
+    <t>postingIndicator</t>
+  </si>
+  <si>
+    <t>POSTING INDICATOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/postingIndicator}
+</t>
+  </si>
+  <si>
+    <t>This field is used to help identify indicators of the Patient Posting Type to which the Document Definition should be ascribed.</t>
+  </si>
+  <si>
+    <t>TIU DOCUMENT DEFINITION FILE @POSTING INDICATOR 8925.1-.14</t>
+  </si>
+  <si>
+    <t>cosignatureNeed</t>
+  </si>
+  <si>
+    <t>COSIGNATURE NEEDED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/cosignatureNeed}
+</t>
+  </si>
+  <si>
+    <t>This boolean flag indicates to the system whether or not a cosignature is needed.</t>
+  </si>
+  <si>
+    <t>TIU DOCUMENT @COSIGNATURE NEEDED 8925-1506</t>
+  </si>
+  <si>
     <t>patientMovementDate</t>
   </si>
   <si>
@@ -346,69 +405,10 @@
 </t>
   </si>
   <si>
-    <t>Optional Extensions Element</t>
-  </si>
-  <si>
     <t>Optional Extension Element - found in all resources.</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
     <t>TIU DOCUMENT @PATIENT MOVEMENT RECORD  8925-1401</t>
-  </si>
-  <si>
-    <t>cosignatureNeed</t>
-  </si>
-  <si>
-    <t>COSIGNATURE NEEDED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/cosignatureNeed}
-</t>
-  </si>
-  <si>
-    <t>This boolean flag indicates to the system whether or not a cosignature is needed.</t>
-  </si>
-  <si>
-    <t>TIU DOCUMENT @COSIGNATURE NEEDED 8925-1506</t>
-  </si>
-  <si>
-    <t>postingIndicator</t>
-  </si>
-  <si>
-    <t>POSTING INDICATOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/postingIndicator}
-</t>
-  </si>
-  <si>
-    <t>This field is used to help identify indicators of the Patient Posting Type to which the Document Definition should be ascribed.</t>
-  </si>
-  <si>
-    <t>TIU DOCUMENT DEFINITION FILE @POSTING INDICATOR 8925.1-.14</t>
-  </si>
-  <si>
-    <t>documentreference-statusDetail/coding/code</t>
-  </si>
-  <si>
-    <t>STATUS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/documentreference-statusDetail.coding.code}
-</t>
-  </si>
-  <si>
-    <t>This field is intended to accommodate the status of a given report.</t>
-  </si>
-  <si>
-    <t>TIU DOCUMENT @STATUS 8925-.05b</t>
   </si>
   <si>
     <t>DocumentReference.modifierExtension</t>
@@ -1960,7 +1960,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="51.7265625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="42.609375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="42.6953125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="33.76171875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -3960,7 +3960,7 @@
         <v>41</v>
       </c>
       <c r="D18" t="s" s="2">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="E18" t="s" s="2">
         <v>42</v>
@@ -3984,7 +3984,7 @@
         <v>157</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="M18" t="s" s="2">
         <v>161</v>
